--- a/xlsx/惠特尼山_intext.xlsx
+++ b/xlsx/惠特尼山_intext.xlsx
@@ -29,43 +29,43 @@
     <t>地形突起度</t>
   </si>
   <si>
-    <t>政策_政策_美國_惠特尼山</t>
+    <t>政策_政策_美国_惠特尼山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%87%8C%E8%96%A9%E5%B7%B4%E5%B1%B1</t>
   </si>
   <si>
-    <t>奧里薩巴山</t>
+    <t>奥里萨巴山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%9D%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>美洲杉國家公園</t>
+    <t>美洲杉国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>內華達山脈 (美國)</t>
+    <t>内华达山脉 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%B7%AF%E5%BA%A6</t>
   </si>
   <si>
-    <t>經緯度</t>
+    <t>经纬度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -77,37 +77,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%84%88%E9%A1%9E%E5%9E%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>山脈類型列表</t>
+    <t>山脉类型列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%B4%97%E5%B2%A9</t>
   </si>
   <si>
-    <t>花崗岩</t>
+    <t>花岗岩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B3%AA%E5%B9%B4%E4%BB%A3</t>
   </si>
   <si>
-    <t>地質年代</t>
+    <t>地质年代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%A0%8A%E7%B4%80</t>
   </si>
   <si>
-    <t>白堊紀</t>
+    <t>白垩纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%AC%E5%9C%9F</t>
   </si>
   <si>
-    <t>美國本土</t>
+    <t>美国本土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E7%89%B9%E5%B0%BC%E5%B3%B0</t>
